--- a/biology/Zoologie/Anoplotrupes_stercorosus/Anoplotrupes_stercorosus.xlsx
+++ b/biology/Zoologie/Anoplotrupes_stercorosus/Anoplotrupes_stercorosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anoplotrupes stercorosus, le Géotrupe des bois, Géotrupe forestier ou Bousier commun, est une espèce d'insectes de l'ordre des coléoptères, de la famille des Geotrupidae, de la sous-famille des Geotrupinae et du genre Anoplotrupes
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans la zone paléartique (Europe occidentale, centrale et du Nord, Espagne, Italie, Yougoslavie, Grèce, Bulgarie, Turquie)[2]. En France métropolitaine, cette espèce commune dans les forêts de feuillus a notamment été recensée en 2008 dans le Nord-Pas-de-Calais (absent de Corse)[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans la zone paléartique (Europe occidentale, centrale et du Nord, Espagne, Italie, Yougoslavie, Grèce, Bulgarie, Turquie). En France métropolitaine, cette espèce commune dans les forêts de feuillus a notamment été recensée en 2008 dans le Nord-Pas-de-Calais (absent de Corse). 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 août 2014)[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 août 2014) : 
 Geotrupes erythropterus Trella, 1937
 Geotrupes inaequalis Faldermann, 1835
 Geotrupes monticola Heer, 1841
@@ -555,7 +571,7 @@
 Geotrupes viturati Pic, 1926
 Scarabaeus stercorosus Scriba, 1791
 Geotrupes prusicus Czwalina, 1884
-Selon Catalogue of Life                                   (26 août 2014)[1] :
+Selon Catalogue of Life                                   (26 août 2014) :
 Geotrupes amoethysticus Mulsant, 1842
 Geotrupes fauconneti Pic, 1926
 Geotrupes juvenilis Mulsant, 1842
@@ -588,7 +604,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut l'observer déambulant lourdement dans les layons forestiers où il est souvent victime de la semelle des marcheurs ou des pneus des véhicules.
 Dérangé, il émet une stridulation à peine audible (il faut l'approcher de l'oreille pour percevoir une émission de crissements rapides et très faibles).
@@ -620,9 +638,11 @@
           <t>Espèce proche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geotrupes stercorarius présente 3 carènes du côté externe du tibia de la 3e paire de pattes tandis que Anoplotrupes stercorosus en présente 2 (loupe bien utile)[5]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geotrupes stercorarius présente 3 carènes du côté externe du tibia de la 3e paire de pattes tandis que Anoplotrupes stercorosus en présente 2 (loupe bien utile). 
 </t>
         </is>
       </c>
